--- a/GSE22224/GSE22224_Target.xlsx
+++ b/GSE22224/GSE22224_Target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Desktop/Projet/Test/GSE22224/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA7AA93-8547-714F-B633-0F9D2EFEEF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C260FC-F1B9-EB4E-A666-6C69741A9A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1823,7 +1823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
